--- a/Метяп/5/lab.xlsx
+++ b/Метяп/5/lab.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prikol\education\Курс 3\1 Семестр\Метяп\lab\5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AE2CB3-AAD0-4AFF-945A-3461FA4C8D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3072ECED-17B0-4BB9-90BD-35EF27FAD721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4692" yWindow="-60" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="First | Follow" sheetId="4" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Action | Goto" sheetId="2" r:id="rId2"/>
     <sheet name="test" sheetId="3" r:id="rId3"/>
-    <sheet name="Лист1" sheetId="1" r:id="rId4"/>
+    <sheet name="BiZon" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="181">
   <si>
     <t>goal</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>condition_list</t>
-  </si>
-  <si>
-    <t>Э</t>
   </si>
   <si>
     <t>condition</t>
@@ -1211,9 +1208,6 @@
     <t xml:space="preserve">AND, OR, </t>
   </si>
   <si>
-    <t>1+2*3</t>
-  </si>
-  <si>
     <t>I1:</t>
   </si>
   <si>
@@ -1226,9 +1220,6 @@
     <t>'SELECT'</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>'FROM'</t>
   </si>
   <si>
@@ -1250,9 +1241,6 @@
     <t>I2:</t>
   </si>
   <si>
-    <t>.],</t>
-  </si>
-  <si>
     <t>I3:</t>
   </si>
   <si>
@@ -1301,30 +1289,15 @@
     <t>[condition</t>
   </si>
   <si>
-    <t>oper],</t>
-  </si>
-  <si>
-    <t>[oper</t>
-  </si>
-  <si>
     <t>num],</t>
   </si>
   <si>
-    <t>string]</t>
-  </si>
-  <si>
     <t>I7:</t>
   </si>
   <si>
     <t>I8:</t>
   </si>
   <si>
-    <t>.oper</t>
-  </si>
-  <si>
-    <t>oper]</t>
-  </si>
-  <si>
     <t>I9:</t>
   </si>
   <si>
@@ -1337,9 +1310,6 @@
     <t>I12:</t>
   </si>
   <si>
-    <t>.]</t>
-  </si>
-  <si>
     <t>SHIFT S1</t>
   </si>
   <si>
@@ -1349,49 +1319,180 @@
     <t>SHIFT S3</t>
   </si>
   <si>
+    <t>REDUCE 1</t>
+  </si>
+  <si>
+    <t>rules</t>
+  </si>
+  <si>
+    <t>I13:</t>
+  </si>
+  <si>
+    <t>I14:</t>
+  </si>
+  <si>
+    <t>S13</t>
+  </si>
+  <si>
+    <t>S14</t>
+  </si>
+  <si>
+    <t>EXPR +</t>
+  </si>
+  <si>
+    <t>TERM *</t>
+  </si>
+  <si>
+    <t>num]</t>
+  </si>
+  <si>
+    <t>.string</t>
+  </si>
+  <si>
+    <t>a+,b*c</t>
+  </si>
+  <si>
+    <t>a*b</t>
+  </si>
+  <si>
+    <t>[goal'</t>
+  </si>
+  <si>
+    <t>•</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>•],</t>
+  </si>
+  <si>
+    <t>•]</t>
+  </si>
+  <si>
+    <t>[condiiton_list</t>
+  </si>
+  <si>
+    <t>"AND"</t>
+  </si>
+  <si>
+    <t>"OR"</t>
+  </si>
+  <si>
+    <t>8, 4</t>
+  </si>
+  <si>
+    <t>REDUCE 2</t>
+  </si>
+  <si>
+    <t>SHIFT S6</t>
+  </si>
+  <si>
+    <t>SHIFT S7</t>
+  </si>
+  <si>
+    <t>REDUCE 4</t>
+  </si>
+  <si>
+    <t>SHIFT S11</t>
+  </si>
+  <si>
+    <t>SHIFT S9</t>
+  </si>
+  <si>
+    <t>SHIFT S10</t>
+  </si>
+  <si>
+    <t>REDUCE 5</t>
+  </si>
+  <si>
+    <t>SHIFT S12</t>
+  </si>
+  <si>
+    <t>SHIFT S13</t>
+  </si>
+  <si>
+    <t>REDUCE 8</t>
+  </si>
+  <si>
+    <t>I15:</t>
+  </si>
+  <si>
+    <t>I16:</t>
+  </si>
+  <si>
+    <t>19, 20</t>
+  </si>
+  <si>
+    <t>S15</t>
+  </si>
+  <si>
+    <t>S16</t>
+  </si>
+  <si>
+    <t>S17</t>
+  </si>
+  <si>
+    <t>S18</t>
+  </si>
+  <si>
+    <t>S19</t>
+  </si>
+  <si>
+    <t>S20</t>
+  </si>
+  <si>
+    <t>GOTO</t>
+  </si>
+  <si>
     <t>SHIFT S5</t>
   </si>
   <si>
-    <t>SHIFT S6</t>
-  </si>
-  <si>
-    <t>REDUCE 1</t>
-  </si>
-  <si>
-    <t>rules</t>
-  </si>
-  <si>
-    <t>I13:</t>
-  </si>
-  <si>
-    <t>I14:</t>
-  </si>
-  <si>
-    <t>SHIFT S14</t>
-  </si>
-  <si>
-    <t>S13</t>
-  </si>
-  <si>
-    <t>S14</t>
-  </si>
-  <si>
-    <t>EXPR +</t>
-  </si>
-  <si>
-    <t>&gt;TERM *</t>
+    <t>ACCEPT</t>
+  </si>
+  <si>
+    <t>REDUCE 3</t>
+  </si>
+  <si>
+    <t>REDUCE 6</t>
+  </si>
+  <si>
+    <t>REDUCE 7</t>
+  </si>
+  <si>
+    <t>REDUCE 9</t>
+  </si>
+  <si>
+    <t>SHIFT S15</t>
+  </si>
+  <si>
+    <t>SHIFT S16</t>
+  </si>
+  <si>
+    <t>SHIFT 17</t>
+  </si>
+  <si>
+    <t>SHIFT S18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1447,6 +1548,15 @@
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1730,58 +1840,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -1804,9 +1896,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2104,17 +2217,17 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+        <v>70</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2126,81 +2239,81 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="str">
+      <c r="B3" s="17" t="str">
         <f>A3</f>
         <v>SELECT</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="15" t="str">
+        <f t="shared" ref="B4:B8" si="0">A4</f>
+        <v>string</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="21" t="str">
-        <f t="shared" ref="B4:B9" si="0">A4</f>
-        <v>string</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="21" t="str">
+      <c r="B5" s="15" t="str">
         <f t="shared" si="0"/>
         <v>FROM</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
       <c r="E5" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="21" t="str">
+      <c r="B6" s="15" t="str">
         <f t="shared" si="0"/>
         <v>WHERE</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
       <c r="E6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="21" t="str">
+      <c r="A7" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="15" t="str">
         <f t="shared" si="0"/>
         <v>comparison</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="str">
@@ -2209,104 +2322,104 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21" t="s">
+      <c r="E10" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="19" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>85</v>
-      </c>
-    </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="32" t="s">
-        <v>12</v>
+      <c r="A14" s="26" t="s">
+        <v>11</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
+        <v>25</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2321,26 +2434,26 @@
         <v>4</v>
       </c>
       <c r="F17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>89</v>
-      </c>
       <c r="F18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C19:D19)</f>
@@ -2348,11 +2461,11 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="21" t="s">
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -2363,11 +2476,11 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="21" t="s">
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="1"/>
@@ -2375,11 +2488,11 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="21" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="1"/>
@@ -2387,14 +2500,14 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="32" t="s">
-        <v>12</v>
+      <c r="A23" s="26" t="s">
+        <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="1"/>
@@ -2412,10 +2525,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A3820B9-72EB-4B0D-8F36-0EEA5A8A6F90}">
-  <dimension ref="A1:AB45"/>
+  <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2427,42 +2540,49 @@
     <col min="6" max="6" width="10.88671875" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" customWidth="1"/>
     <col min="8" max="8" width="11.5546875" customWidth="1"/>
-    <col min="10" max="10" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5546875" customWidth="1"/>
     <col min="11" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="13.33203125" customWidth="1"/>
+    <col min="28" max="28" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="2.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T1" t="s">
-        <v>128</v>
-      </c>
-      <c r="U1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="V1" t="s">
+        <v>121</v>
+      </c>
+      <c r="W1" t="s">
+        <v>93</v>
+      </c>
+      <c r="X1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
@@ -2471,1329 +2591,1521 @@
         <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="M2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="W2" t="s">
+        <v>114</v>
+      </c>
+      <c r="X2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="B3" t="s">
+        <v>126</v>
+      </c>
+      <c r="L3" s="19"/>
+      <c r="M3" t="s">
         <v>94</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" t="s">
         <v>95</v>
       </c>
-      <c r="U2" t="s">
-        <v>118</v>
-      </c>
-      <c r="V2" t="s">
-        <v>17</v>
-      </c>
-      <c r="W2" t="s">
-        <v>12</v>
-      </c>
-      <c r="X2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>136</v>
-      </c>
-      <c r="J3" s="25"/>
-      <c r="K3" t="s">
+      <c r="P3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" t="s">
         <v>96</v>
       </c>
-      <c r="L3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="S3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T3" t="s">
         <v>97</v>
       </c>
-      <c r="N3" t="s">
-        <v>98</v>
-      </c>
-      <c r="O3" t="s">
-        <v>2</v>
-      </c>
-      <c r="P3" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>7</v>
-      </c>
-      <c r="R3" t="s">
-        <v>100</v>
-      </c>
-      <c r="U3" t="s">
-        <v>118</v>
-      </c>
-      <c r="V3" t="s">
-        <v>17</v>
-      </c>
       <c r="W3" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="X3" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="Y3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
-      </c>
-      <c r="J4" s="25"/>
-      <c r="K4" t="s">
-        <v>101</v>
-      </c>
-      <c r="L4" t="s">
-        <v>17</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="L4" s="19"/>
       <c r="M4" t="s">
         <v>98</v>
       </c>
       <c r="N4" t="s">
-        <v>102</v>
-      </c>
-      <c r="U4" t="s">
-        <v>118</v>
-      </c>
-      <c r="V4" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="O4" t="s">
+        <v>142</v>
+      </c>
+      <c r="P4" t="s">
+        <v>99</v>
       </c>
       <c r="W4" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="X4" t="s">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="Y4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" t="s">
-        <v>141</v>
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>129</v>
       </c>
       <c r="H5" t="s">
-        <v>138</v>
-      </c>
-      <c r="J5" s="25"/>
-      <c r="K5" t="s">
-        <v>101</v>
-      </c>
-      <c r="L5" t="s">
-        <v>17</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="L5" s="19"/>
       <c r="M5" t="s">
         <v>98</v>
       </c>
       <c r="N5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" t="s">
+        <v>142</v>
+      </c>
+      <c r="P5" t="s">
         <v>7</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>8</v>
       </c>
-      <c r="P5" t="s">
+      <c r="R5" t="s">
+        <v>100</v>
+      </c>
+      <c r="V5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="V6" t="s">
+        <v>122</v>
+      </c>
+      <c r="W6" t="s">
+        <v>93</v>
+      </c>
+      <c r="X6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="M7" t="s">
+        <v>93</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="W7" t="s">
+        <v>114</v>
+      </c>
+      <c r="X7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>151</v>
+      </c>
+      <c r="L8" s="19"/>
+      <c r="M8" t="s">
+        <v>98</v>
+      </c>
+      <c r="N8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" t="s">
+        <v>7</v>
+      </c>
+      <c r="P8" t="s">
+        <v>144</v>
+      </c>
+      <c r="W8" t="s">
+        <v>114</v>
+      </c>
+      <c r="X8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>152</v>
+      </c>
+      <c r="I9" t="s">
+        <v>153</v>
+      </c>
+      <c r="L9" s="19"/>
+      <c r="M9" t="s">
+        <v>98</v>
+      </c>
+      <c r="N9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" t="s">
+        <v>7</v>
+      </c>
+      <c r="P9" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>8</v>
+      </c>
+      <c r="R9" t="s">
+        <v>100</v>
+      </c>
+      <c r="W9" t="s">
+        <v>114</v>
+      </c>
+      <c r="X9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>154</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="W10" t="s">
+        <v>114</v>
+      </c>
+      <c r="X10" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="J11" t="s">
+        <v>155</v>
+      </c>
+      <c r="K11" t="s">
+        <v>156</v>
+      </c>
+      <c r="L11" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="T5" t="s">
+      <c r="M11" t="s">
+        <v>93</v>
+      </c>
+      <c r="N11">
+        <v>6</v>
+      </c>
+      <c r="W11" t="s">
+        <v>118</v>
+      </c>
+      <c r="X11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>154</v>
+      </c>
+      <c r="L12" s="19"/>
+      <c r="M12" t="s">
+        <v>98</v>
+      </c>
+      <c r="N12" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" t="s">
+        <v>7</v>
+      </c>
+      <c r="P12" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>142</v>
+      </c>
+      <c r="R12" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" t="s">
-        <v>137</v>
-      </c>
-      <c r="J6" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="T6" t="s">
-        <v>131</v>
-      </c>
-      <c r="U6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" t="s">
-        <v>139</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="K7" t="s">
-        <v>95</v>
-      </c>
-      <c r="U7" t="s">
-        <v>118</v>
-      </c>
-      <c r="V7" t="s">
-        <v>17</v>
-      </c>
-      <c r="W7" t="s">
-        <v>12</v>
-      </c>
-      <c r="X7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" t="s">
-        <v>140</v>
-      </c>
-      <c r="J8" s="25"/>
-      <c r="K8" t="s">
+      <c r="V12" t="s">
         <v>101</v>
       </c>
-      <c r="L8" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" t="s">
-        <v>7</v>
-      </c>
-      <c r="N8" t="s">
-        <v>106</v>
-      </c>
-      <c r="U8" t="s">
-        <v>118</v>
-      </c>
-      <c r="V8" t="s">
-        <v>17</v>
-      </c>
-      <c r="W8" t="s">
-        <v>98</v>
-      </c>
-      <c r="X8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" t="s">
-        <v>145</v>
-      </c>
-      <c r="J9" s="25"/>
-      <c r="K9" t="s">
-        <v>101</v>
-      </c>
-      <c r="L9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M9" t="s">
-        <v>7</v>
-      </c>
-      <c r="N9" t="s">
-        <v>98</v>
-      </c>
-      <c r="O9" t="s">
-        <v>8</v>
-      </c>
-      <c r="P9" t="s">
-        <v>103</v>
-      </c>
-      <c r="U9" t="s">
-        <v>118</v>
-      </c>
-      <c r="V9" t="s">
-        <v>17</v>
-      </c>
-      <c r="W9" t="s">
-        <v>98</v>
-      </c>
-      <c r="X9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="U10" t="s">
-        <v>118</v>
-      </c>
-      <c r="V10" t="s">
-        <v>17</v>
-      </c>
-      <c r="W10" t="s">
-        <v>98</v>
-      </c>
-      <c r="X10" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J11" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="K11" t="s">
-        <v>95</v>
-      </c>
-      <c r="U11" t="s">
-        <v>122</v>
-      </c>
-      <c r="V11" t="s">
-        <v>17</v>
-      </c>
-      <c r="W11" t="s">
-        <v>129</v>
-      </c>
-      <c r="X11" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" t="s">
-        <v>101</v>
-      </c>
-      <c r="L12" t="s">
-        <v>17</v>
-      </c>
-      <c r="M12" t="s">
-        <v>7</v>
-      </c>
-      <c r="N12" t="s">
-        <v>8</v>
-      </c>
-      <c r="O12" t="s">
-        <v>98</v>
-      </c>
-      <c r="P12" t="s">
-        <v>108</v>
-      </c>
-      <c r="U12" t="s">
-        <v>124</v>
-      </c>
-      <c r="V12" t="s">
-        <v>17</v>
-      </c>
-      <c r="W12" t="s">
-        <v>98</v>
-      </c>
-      <c r="X12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J13" s="25"/>
-      <c r="K13" t="s">
-        <v>101</v>
-      </c>
-      <c r="L13" t="s">
-        <v>17</v>
-      </c>
+      <c r="C13" t="s">
+        <v>154</v>
+      </c>
+      <c r="L13" s="19"/>
       <c r="M13" t="s">
         <v>98</v>
       </c>
       <c r="N13" t="s">
-        <v>102</v>
-      </c>
-      <c r="U13" t="s">
-        <v>124</v>
+        <v>16</v>
+      </c>
+      <c r="O13" t="s">
+        <v>142</v>
+      </c>
+      <c r="P13" t="s">
+        <v>99</v>
       </c>
       <c r="V13" t="s">
+        <v>123</v>
+      </c>
+      <c r="W13" t="s">
+        <v>93</v>
+      </c>
+      <c r="X13">
         <v>17</v>
       </c>
-      <c r="W13" t="s">
-        <v>98</v>
-      </c>
-      <c r="X13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J14" s="25"/>
-      <c r="K14" t="s">
-        <v>101</v>
-      </c>
-      <c r="L14" t="s">
-        <v>17</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="F14" t="s">
+        <v>158</v>
+      </c>
+      <c r="L14" s="19"/>
       <c r="M14" t="s">
         <v>98</v>
       </c>
       <c r="N14" t="s">
+        <v>16</v>
+      </c>
+      <c r="O14" t="s">
+        <v>142</v>
+      </c>
+      <c r="P14" t="s">
         <v>7</v>
       </c>
-      <c r="O14" t="s">
+      <c r="Q14" t="s">
         <v>8</v>
       </c>
-      <c r="P14" t="s">
-        <v>103</v>
-      </c>
-      <c r="T14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="R14" t="s">
+        <v>100</v>
+      </c>
+      <c r="W14" t="s">
+        <v>114</v>
+      </c>
+      <c r="X14" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J15" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="T15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" t="s">
+        <v>159</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="W15" t="s">
+        <v>114</v>
+      </c>
+      <c r="X15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" t="s">
+        <v>160</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="M16" t="s">
+        <v>93</v>
+      </c>
+      <c r="N16" t="s">
+        <v>149</v>
+      </c>
+      <c r="W16" t="s">
+        <v>114</v>
+      </c>
+      <c r="X16" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="M17" t="s">
+        <v>98</v>
+      </c>
+      <c r="N17" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17" t="s">
+        <v>7</v>
+      </c>
+      <c r="P17" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>2</v>
+      </c>
+      <c r="R17" t="s">
+        <v>142</v>
+      </c>
+      <c r="S17" t="s">
+        <v>143</v>
+      </c>
+      <c r="W17" t="s">
+        <v>114</v>
+      </c>
+      <c r="X17" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="L18" s="19"/>
+      <c r="M18" t="s">
+        <v>94</v>
+      </c>
+      <c r="N18" t="s">
+        <v>16</v>
+      </c>
+      <c r="O18" t="s">
+        <v>95</v>
+      </c>
+      <c r="P18" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>142</v>
+      </c>
+      <c r="R18" t="s">
+        <v>96</v>
+      </c>
+      <c r="S18" t="s">
+        <v>7</v>
+      </c>
+      <c r="T18" t="s">
+        <v>106</v>
+      </c>
+      <c r="W18" t="s">
+        <v>118</v>
+      </c>
+      <c r="X18" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="L19" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="V19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="M20" t="s">
+        <v>93</v>
+      </c>
+      <c r="N20">
+        <v>7</v>
+      </c>
+      <c r="V20" t="s">
+        <v>124</v>
+      </c>
+      <c r="W20" t="s">
+        <v>93</v>
+      </c>
+      <c r="X20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
+      <c r="L21" s="19"/>
+      <c r="M21" t="s">
+        <v>94</v>
+      </c>
+      <c r="N21" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" t="s">
+        <v>95</v>
+      </c>
+      <c r="P21" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>96</v>
+      </c>
+      <c r="R21" t="s">
+        <v>142</v>
+      </c>
+      <c r="S21" t="s">
+        <v>7</v>
+      </c>
+      <c r="T21" t="s">
+        <v>106</v>
+      </c>
+      <c r="W21" t="s">
+        <v>118</v>
+      </c>
+      <c r="X21" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="1"/>
+      <c r="L22" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="V22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="1"/>
+      <c r="L23" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="M23" t="s">
+        <v>93</v>
+      </c>
+      <c r="N23">
+        <v>9</v>
+      </c>
+      <c r="V23" t="s">
+        <v>125</v>
+      </c>
+      <c r="W23" t="s">
+        <v>93</v>
+      </c>
+      <c r="X23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="1"/>
+      <c r="L24" s="19"/>
+      <c r="M24" t="s">
+        <v>94</v>
+      </c>
+      <c r="N24" t="s">
+        <v>16</v>
+      </c>
+      <c r="O24" t="s">
+        <v>95</v>
+      </c>
+      <c r="P24" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>96</v>
+      </c>
+      <c r="R24" t="s">
+        <v>7</v>
+      </c>
+      <c r="S24" t="s">
+        <v>142</v>
+      </c>
+      <c r="T24" t="s">
+        <v>97</v>
+      </c>
+      <c r="W24" t="s">
+        <v>118</v>
+      </c>
+      <c r="X24" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="1"/>
+      <c r="L25" s="19"/>
+      <c r="M25" t="s">
+        <v>108</v>
+      </c>
+      <c r="N25" t="s">
+        <v>16</v>
+      </c>
+      <c r="O25" t="s">
+        <v>142</v>
+      </c>
+      <c r="P25" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>110</v>
+      </c>
+      <c r="V25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="1"/>
+      <c r="L26" s="19"/>
+      <c r="M26" t="s">
+        <v>108</v>
+      </c>
+      <c r="N26" t="s">
+        <v>16</v>
+      </c>
+      <c r="O26" t="s">
+        <v>142</v>
+      </c>
+      <c r="P26" t="s">
+        <v>111</v>
+      </c>
+      <c r="V26" t="s">
+        <v>131</v>
+      </c>
+      <c r="W26" t="s">
+        <v>93</v>
+      </c>
+      <c r="X26">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="1"/>
+      <c r="L27" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="W27" t="s">
+        <v>118</v>
+      </c>
+      <c r="X27" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F28" s="15"/>
+      <c r="G28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L28" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="M28" t="s">
+        <v>93</v>
+      </c>
+      <c r="N28">
+        <v>10</v>
+      </c>
+      <c r="V28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="1"/>
+      <c r="L29" s="19"/>
+      <c r="M29" t="s">
+        <v>108</v>
+      </c>
+      <c r="N29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O29" t="s">
+        <v>109</v>
+      </c>
+      <c r="P29" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>113</v>
+      </c>
+      <c r="V29" t="s">
         <v>132</v>
       </c>
-      <c r="U15" t="s">
+      <c r="W29" t="s">
+        <v>93</v>
+      </c>
+      <c r="X29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" s="15"/>
+      <c r="G30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M30" t="s">
+        <v>114</v>
+      </c>
+      <c r="N30" t="s">
+        <v>16</v>
+      </c>
+      <c r="O30" t="s">
+        <v>142</v>
+      </c>
+      <c r="P30" t="s">
+        <v>115</v>
+      </c>
+      <c r="W30" t="s">
+        <v>94</v>
+      </c>
+      <c r="X30" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y30" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
+      <c r="Z30" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F31" s="15"/>
+      <c r="G31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M31" t="s">
+        <v>114</v>
+      </c>
+      <c r="N31" t="s">
+        <v>16</v>
+      </c>
+      <c r="O31" t="s">
+        <v>142</v>
+      </c>
+      <c r="P31" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>116</v>
+      </c>
+      <c r="R31" t="s">
+        <v>113</v>
+      </c>
+      <c r="W31" t="s">
+        <v>141</v>
+      </c>
+      <c r="X31" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="1"/>
+      <c r="M32" t="s">
+        <v>114</v>
+      </c>
+      <c r="N32" t="s">
+        <v>16</v>
+      </c>
+      <c r="O32" t="s">
+        <v>142</v>
+      </c>
+      <c r="P32" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>117</v>
+      </c>
+      <c r="R32" t="s">
+        <v>113</v>
+      </c>
+      <c r="V32" t="s">
+        <v>101</v>
+      </c>
+      <c r="X32" s="38"/>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="19"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="1"/>
+      <c r="M33" t="s">
+        <v>118</v>
+      </c>
+      <c r="N33" t="s">
+        <v>16</v>
+      </c>
+      <c r="O33" t="s">
+        <v>142</v>
+      </c>
+      <c r="P33" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>14</v>
+      </c>
+      <c r="R33" t="s">
+        <v>119</v>
+      </c>
+      <c r="V33" t="s">
+        <v>161</v>
+      </c>
+      <c r="W33" t="s">
+        <v>93</v>
+      </c>
+      <c r="X33" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A34" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="1"/>
+      <c r="L34" t="s">
+        <v>101</v>
+      </c>
+      <c r="W34" t="s">
         <v>146</v>
       </c>
-      <c r="J16" s="25" t="s">
+      <c r="X34" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A35" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="20"/>
+      <c r="W35" t="s">
+        <v>146</v>
+      </c>
+      <c r="X35" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="V36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="V37" t="s">
+        <v>162</v>
+      </c>
+      <c r="W37" t="s">
+        <v>93</v>
+      </c>
+      <c r="X37">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A38" s="28"/>
+      <c r="B38" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="30"/>
+      <c r="W38" t="s">
+        <v>108</v>
+      </c>
+      <c r="X38" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A39" s="31">
+        <v>0</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I39" s="32">
+        <f>COUNTA(D39:H39)</f>
+        <v>5</v>
+      </c>
+      <c r="V39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A40" s="31">
+        <v>1</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="32">
+        <f>COUNTA(D40:H40)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A41" s="31">
+        <v>2</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G41" s="15"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="32">
+        <f>COUNTA(D41:H41)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A42" s="31">
+        <v>3</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="K16" t="s">
-        <v>95</v>
-      </c>
-      <c r="U16" t="s">
-        <v>118</v>
-      </c>
-      <c r="V16" t="s">
-        <v>17</v>
-      </c>
-      <c r="W16" t="s">
-        <v>12</v>
-      </c>
-      <c r="X16" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="J17" s="25"/>
-      <c r="K17" t="s">
-        <v>96</v>
-      </c>
-      <c r="L17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M17" t="s">
-        <v>97</v>
-      </c>
-      <c r="N17" t="s">
+      <c r="E42" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="32">
+        <f t="shared" ref="I42:I47" si="0">COUNTA(D42:H42)</f>
         <v>2</v>
       </c>
-      <c r="O17" t="s">
-        <v>98</v>
-      </c>
-      <c r="P17" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>7</v>
-      </c>
-      <c r="R17" t="s">
-        <v>110</v>
-      </c>
-      <c r="U17" t="s">
-        <v>118</v>
-      </c>
-      <c r="V17" t="s">
-        <v>17</v>
-      </c>
-      <c r="W17" t="s">
-        <v>98</v>
-      </c>
-      <c r="X17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="2" t="s">
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A43" s="31">
+        <v>4</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="32">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="2" t="s">
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A44" s="31">
+        <v>5</v>
+      </c>
+      <c r="B44" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="U18" t="s">
-        <v>118</v>
-      </c>
-      <c r="V18" t="s">
-        <v>17</v>
-      </c>
-      <c r="W18" t="s">
-        <v>98</v>
-      </c>
-      <c r="X18" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J19" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="K19" t="s">
-        <v>95</v>
-      </c>
-      <c r="U19" t="s">
-        <v>118</v>
-      </c>
-      <c r="V19" t="s">
-        <v>17</v>
-      </c>
-      <c r="W19" t="s">
-        <v>98</v>
-      </c>
-      <c r="X19" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J20" s="25"/>
-      <c r="K20" t="s">
-        <v>96</v>
-      </c>
-      <c r="L20" t="s">
-        <v>17</v>
-      </c>
-      <c r="M20" t="s">
-        <v>97</v>
-      </c>
-      <c r="N20" t="s">
-        <v>2</v>
-      </c>
-      <c r="O20" t="s">
-        <v>99</v>
-      </c>
-      <c r="P20" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>7</v>
-      </c>
-      <c r="R20" t="s">
-        <v>110</v>
-      </c>
-      <c r="U20" t="s">
-        <v>122</v>
-      </c>
-      <c r="V20" t="s">
-        <v>17</v>
-      </c>
-      <c r="W20" t="s">
-        <v>98</v>
-      </c>
-      <c r="X20" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J21" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="U21" t="s">
-        <v>124</v>
-      </c>
-      <c r="V21" t="s">
-        <v>17</v>
-      </c>
-      <c r="W21" t="s">
-        <v>98</v>
-      </c>
-      <c r="X21" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J22" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="K22" t="s">
-        <v>95</v>
-      </c>
-      <c r="U22" t="s">
-        <v>124</v>
-      </c>
-      <c r="V22" t="s">
-        <v>17</v>
-      </c>
-      <c r="W22" t="s">
-        <v>98</v>
-      </c>
-      <c r="X22" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J23" s="25"/>
-      <c r="K23" t="s">
-        <v>96</v>
-      </c>
-      <c r="L23" t="s">
-        <v>17</v>
-      </c>
-      <c r="M23" t="s">
-        <v>97</v>
-      </c>
-      <c r="N23" t="s">
-        <v>2</v>
-      </c>
-      <c r="O23" t="s">
-        <v>99</v>
-      </c>
-      <c r="P23" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>98</v>
-      </c>
-      <c r="R23" t="s">
-        <v>100</v>
-      </c>
-      <c r="T23" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J24" s="25"/>
-      <c r="K24" t="s">
-        <v>112</v>
-      </c>
-      <c r="L24" t="s">
-        <v>17</v>
-      </c>
-      <c r="M24" t="s">
-        <v>98</v>
-      </c>
-      <c r="N24" t="s">
-        <v>113</v>
-      </c>
-      <c r="O24" t="s">
-        <v>114</v>
-      </c>
-      <c r="T24" t="s">
-        <v>133</v>
-      </c>
-      <c r="U24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J25" s="25"/>
-      <c r="K25" t="s">
-        <v>112</v>
-      </c>
-      <c r="L25" t="s">
-        <v>17</v>
-      </c>
-      <c r="M25" t="s">
-        <v>98</v>
-      </c>
-      <c r="N25" t="s">
-        <v>115</v>
-      </c>
-      <c r="U25" t="s">
-        <v>122</v>
-      </c>
-      <c r="V25" t="s">
-        <v>17</v>
-      </c>
-      <c r="W25" t="s">
-        <v>5</v>
-      </c>
-      <c r="X25" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J26" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="T26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J27" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="K27" t="s">
-        <v>95</v>
-      </c>
-      <c r="T27" t="s">
-        <v>134</v>
-      </c>
-      <c r="U27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J28" s="25"/>
-      <c r="K28" t="s">
-        <v>112</v>
-      </c>
-      <c r="L28" t="s">
-        <v>17</v>
-      </c>
-      <c r="M28" t="s">
-        <v>113</v>
-      </c>
-      <c r="N28" t="s">
-        <v>98</v>
-      </c>
-      <c r="O28" t="s">
-        <v>117</v>
-      </c>
-      <c r="U28" t="s">
-        <v>122</v>
-      </c>
-      <c r="V28" t="s">
-        <v>17</v>
-      </c>
-      <c r="W28" t="s">
-        <v>5</v>
-      </c>
-      <c r="X28" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K29" t="s">
-        <v>118</v>
-      </c>
-      <c r="L29" t="s">
-        <v>17</v>
-      </c>
-      <c r="M29" t="s">
-        <v>98</v>
-      </c>
-      <c r="N29" t="s">
-        <v>119</v>
-      </c>
-      <c r="U29" t="s">
-        <v>124</v>
-      </c>
-      <c r="V29" t="s">
-        <v>17</v>
-      </c>
-      <c r="W29" t="s">
-        <v>98</v>
-      </c>
-      <c r="X29" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K30" t="s">
-        <v>118</v>
-      </c>
-      <c r="L30" t="s">
-        <v>17</v>
-      </c>
-      <c r="M30" t="s">
-        <v>98</v>
-      </c>
-      <c r="N30" t="s">
-        <v>12</v>
-      </c>
-      <c r="O30" t="s">
-        <v>120</v>
-      </c>
-      <c r="P30" t="s">
-        <v>117</v>
-      </c>
-      <c r="U30" t="s">
-        <v>124</v>
-      </c>
-      <c r="V30" t="s">
-        <v>17</v>
-      </c>
-      <c r="W30" t="s">
-        <v>98</v>
-      </c>
-      <c r="X30" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K31" t="s">
-        <v>118</v>
-      </c>
-      <c r="L31" t="s">
-        <v>17</v>
-      </c>
-      <c r="M31" t="s">
-        <v>98</v>
-      </c>
-      <c r="N31" t="s">
-        <v>12</v>
-      </c>
-      <c r="O31" t="s">
-        <v>121</v>
-      </c>
-      <c r="P31" t="s">
-        <v>117</v>
-      </c>
-      <c r="T31" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A32" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="K32" t="s">
-        <v>122</v>
-      </c>
-      <c r="L32" t="s">
-        <v>17</v>
-      </c>
-      <c r="M32" t="s">
-        <v>98</v>
-      </c>
-      <c r="N32" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" t="s">
-        <v>15</v>
-      </c>
-      <c r="P32" t="s">
-        <v>123</v>
-      </c>
-      <c r="T32" t="s">
-        <v>143</v>
-      </c>
-      <c r="U32" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="K33" t="s">
-        <v>124</v>
-      </c>
-      <c r="L33" t="s">
-        <v>17</v>
-      </c>
-      <c r="M33" t="s">
-        <v>98</v>
-      </c>
-      <c r="N33" t="s">
-        <v>125</v>
-      </c>
-      <c r="U33" t="s">
-        <v>122</v>
-      </c>
-      <c r="V33" t="s">
-        <v>17</v>
-      </c>
-      <c r="W33" t="s">
-        <v>5</v>
-      </c>
-      <c r="X33" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A34" s="34"/>
-      <c r="B34" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="36"/>
-      <c r="K34" t="s">
-        <v>124</v>
-      </c>
-      <c r="L34" t="s">
-        <v>17</v>
-      </c>
-      <c r="M34" t="s">
-        <v>98</v>
-      </c>
-      <c r="N34" t="s">
-        <v>126</v>
-      </c>
-      <c r="T34" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A35" s="37">
-        <v>0</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F35" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G35" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="H35" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="I35" s="38">
-        <f>COUNTA(D35:H35)</f>
-        <v>5</v>
-      </c>
-      <c r="J35" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A36" s="37">
-        <v>1</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="38">
-        <f>COUNTA(G36:H36)</f>
-        <v>0</v>
-      </c>
-      <c r="T36" t="s">
-        <v>144</v>
-      </c>
-      <c r="U36" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A37" s="37">
-        <v>2</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="G37" s="21"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="38">
-        <f>COUNTA(G37:H37)</f>
-        <v>0</v>
-      </c>
-      <c r="U37" t="s">
-        <v>96</v>
-      </c>
-      <c r="V37" t="s">
-        <v>17</v>
-      </c>
-      <c r="W37" t="s">
-        <v>97</v>
-      </c>
-      <c r="X37" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A38" s="37">
-        <v>3</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="38">
-        <f t="shared" ref="I36:I45" si="0">COUNTA(D38:H38)</f>
-        <v>2</v>
-      </c>
-      <c r="T38" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A39" s="37">
-        <v>4</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="38">
+      <c r="C44" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="32">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A40" s="37">
-        <v>5</v>
-      </c>
-      <c r="B40" s="25" t="s">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A45" s="31">
+        <v>6</v>
+      </c>
+      <c r="B45" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="38">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A41" s="37">
-        <v>6</v>
-      </c>
-      <c r="B41" s="25" t="s">
+      <c r="C45" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F45" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="F41" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" s="21"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="38">
+      <c r="G45" s="15"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="32">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A42" s="37">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A46" s="31">
         <v>7</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B46" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="F42" s="21" t="s">
+      <c r="C46" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F46" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G42" s="21"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="38">
+      <c r="G46" s="15"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="32">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A43" s="37">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A47" s="31">
         <v>8</v>
       </c>
-      <c r="B43" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="21"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="38">
+      <c r="B47" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47" s="15"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="32">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A44" s="37">
-        <v>9</v>
-      </c>
-      <c r="B44" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="38">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="39">
-        <v>10</v>
-      </c>
-      <c r="B45" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A48" s="31"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="32"/>
+    </row>
+    <row r="49" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="33"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="3"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L52" s="38"/>
+      <c r="M52" s="38"/>
+      <c r="P52" s="38"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3801,40 +4113,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B0AFBC2-9A80-4D0B-95A6-5FD5E15C4E9C}">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:18" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="H1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>56</v>
+      <c r="N1" s="12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7"/>
+      <c r="A2" s="42"/>
       <c r="B2" s="4">
         <v>1</v>
       </c>
@@ -3847,553 +4159,556 @@
       <c r="E2" s="4">
         <v>4</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="42"/>
       <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>19</v>
       </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="17" t="s">
-        <v>57</v>
+      <c r="N2" s="12" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>58</v>
+        <v>19</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
         <v>20</v>
       </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>21</v>
       </c>
-      <c r="L4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="17" t="s">
-        <v>59</v>
+      <c r="N4" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" s="17" t="s">
-        <v>60</v>
+        <v>21</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N7" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H6" t="s">
+      <c r="N8" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I6" t="s">
+      <c r="C9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" s="37">
+        <v>1</v>
+      </c>
+      <c r="O12" t="s">
         <v>17</v>
       </c>
-      <c r="J6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N7" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
+      <c r="P12" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N13" s="37">
+        <v>2</v>
+      </c>
+      <c r="O13" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>135</v>
+      </c>
+      <c r="R13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N14" s="37">
+        <v>3</v>
+      </c>
+      <c r="O14" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N15" s="37">
+        <v>4</v>
+      </c>
+      <c r="O15" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>136</v>
+      </c>
+      <c r="R15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N16" s="37">
+        <v>5</v>
+      </c>
+      <c r="O16" t="s">
+        <v>19</v>
+      </c>
+      <c r="P16" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N17" s="37">
+        <v>6</v>
+      </c>
+      <c r="O17" t="s">
+        <v>21</v>
+      </c>
+      <c r="P17" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="13" t="s">
+      <c r="B21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D21" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="13" t="s">
+    </row>
+    <row r="22" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="N9" s="17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="15" t="s">
+      <c r="B22" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N10" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="15" t="s">
+      <c r="C23" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="15" t="s">
+      <c r="B24" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="N12" s="43">
-        <v>1</v>
-      </c>
-      <c r="O12" t="s">
-        <v>18</v>
-      </c>
-      <c r="P12" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="15" t="s">
+      <c r="B25" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="N13" s="43">
-        <v>2</v>
-      </c>
-      <c r="O13" t="s">
-        <v>18</v>
-      </c>
-      <c r="P13" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>148</v>
-      </c>
-      <c r="R13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="15" t="s">
+      <c r="B26" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="N14" s="43">
-        <v>3</v>
-      </c>
-      <c r="O14" t="s">
-        <v>18</v>
-      </c>
-      <c r="P14" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="s">
+      <c r="B27" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B28" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N15" s="43">
-        <v>4</v>
-      </c>
-      <c r="O15" t="s">
-        <v>20</v>
-      </c>
-      <c r="P15" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>149</v>
-      </c>
-      <c r="R15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="14" t="s">
+      <c r="C28" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B29" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N16" s="43">
-        <v>5</v>
-      </c>
-      <c r="O16" t="s">
-        <v>20</v>
-      </c>
-      <c r="P16" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="15" t="s">
+      <c r="C29" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="N17" s="43">
-        <v>6</v>
-      </c>
-      <c r="O17" t="s">
-        <v>22</v>
-      </c>
-      <c r="P17" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="J23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>38</v>
+      <c r="B30" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -4408,193 +4723,634 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41053E1-9E59-4F3D-AF24-71D1473FCD75}">
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="A1:F15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C1" s="2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="22"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="I5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H7" t="s">
+        <v>172</v>
+      </c>
+      <c r="I7" t="s">
+        <v>172</v>
+      </c>
+      <c r="J7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="H10" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="I10" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="J10" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="K10" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="L10" s="39"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="F11" t="s">
+        <v>156</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="H11" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="I11" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="J11" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="K11" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="L11" s="39"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="H13" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="I13" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="J13" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="L13" s="39"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="46" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="H15" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="I15" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="J15" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="K15" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="L15" s="39"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="H16" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="I16" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="J16" t="s">
+        <v>178</v>
+      </c>
+      <c r="K16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>164</v>
+      </c>
+      <c r="H17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="H20" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="I20" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="J20" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="K20" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="L20" s="39"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>168</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="H21" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="I21" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="J21" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="K21" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="L21" s="39"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="G22" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="H22" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="I22" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="J22" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="K22" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="L22" s="39"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2">
+      <c r="D24" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E24" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="F24" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>5</v>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" t="s">
+        <v>133</v>
+      </c>
+      <c r="F35" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>165</v>
+      </c>
+      <c r="E41" t="s">
+        <v>168</v>
+      </c>
+      <c r="F41" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>166</v>
+      </c>
+      <c r="E42" t="s">
+        <v>169</v>
+      </c>
+      <c r="F42" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>